--- a/biology/Botanique/Orme_d'Amérique/Orme_d'Amérique.xlsx
+++ b/biology/Botanique/Orme_d'Amérique/Orme_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orme_d%27Am%C3%A9rique</t>
+          <t>Orme_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulmus americana
-L'orme d'Amérique, ou orme américain (Ulmus americana), est une espèce de plantes à fleurs de la famille des Ulmaceae. C'est un orme qui pousse notamment dans la vallée du Mississippi, en Nouvelle-Angleterre et dans l'est du Canada, jusqu'au 48e parallèle environ. Il est un des plus grands feuillus de l'est de l'Amérique du nord, il culmine à 35 mètres de haut. Il a une forme facile à identifier, en forme d'urne, avec un tronc long élancé, même en plein champ. C'est l'un des symboles de l’État de Massachusetts aux États-Unis. On appelle aussi cette espèce orme blanc[1].
+L'orme d'Amérique, ou orme américain (Ulmus americana), est une espèce de plantes à fleurs de la famille des Ulmaceae. C'est un orme qui pousse notamment dans la vallée du Mississippi, en Nouvelle-Angleterre et dans l'est du Canada, jusqu'au 48e parallèle environ. Il est un des plus grands feuillus de l'est de l'Amérique du nord, il culmine à 35 mètres de haut. Il a une forme facile à identifier, en forme d'urne, avec un tronc long élancé, même en plein champ. C'est l'un des symboles de l’État de Massachusetts aux États-Unis. On appelle aussi cette espèce orme blanc.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orme_d%27Am%C3%A9rique</t>
+          <t>Orme_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hauteur: Jusqu’à 35 m.
 Diamètre: Jusqu’à 175 cm.
-Âge maximal: 200 ans[1].</t>
+Âge maximal: 200 ans.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orme_d%27Am%C3%A9rique</t>
+          <t>Orme_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Maladie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La survie de l'Orme d'Amérique est gravement menacée par la graphiose de l'orme, infection par un myco-parasite introduit au XXe siècle aux États-Unis, à tel point que les biologistes s'attendent à la disparition totale prochaine de l'espèce dans son habitat. Ce parasite provient d'Asie, il a aussi envahi l'Europe où il a décimé les populations d'ormes indigènes.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orme_d%27Am%C3%A9rique</t>
+          <t>Orme_d'Amérique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Ulmus americana L.[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : orme d'Amérique[2], orme blanc[2], orme américain[3], orme blanc d'Amérique[3].
-Synonymes
-Ulmus americana a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Ulmus americana L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : orme d'Amérique, orme blanc, orme américain, orme blanc d'Amérique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orme_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orme_d%27Am%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ulmus americana a pour synonymes :
 Ulmus alba Raf.
 Ulmus americana f. alba (Aiton) Fernald
 Ulmus americana f. americana
@@ -608,33 +661,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Orme_d%27Am%C3%A9rique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Orme_d'Amérique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Orme_d%27Am%C3%A9rique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[4] : Canada, États-Unis.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Canada, États-Unis.
 </t>
         </is>
       </c>
